--- a/Symphony/2021/February/All Details/28.02.2021/MC Bank Statement Feb-2021.xlsx
+++ b/Symphony/2021/February/All Details/28.02.2021/MC Bank Statement Feb-2021.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\Symphony\2021\February\All Details\28.02.2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feb 2021" sheetId="7" r:id="rId1"/>
@@ -12,7 +17,7 @@
     <sheet name="Balance Transfer" sheetId="14" r:id="rId3"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +37,7 @@
     <author>LENOVO</author>
   </authors>
   <commentList>
-    <comment ref="D24" authorId="0">
+    <comment ref="D24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -564,9 +569,6 @@
     <t>Tutul</t>
   </si>
   <si>
-    <t>Picnic</t>
-  </si>
-  <si>
     <t>10.01.2021</t>
   </si>
   <si>
@@ -800,13 +802,16 @@
   <si>
     <t>Bariola dhar</t>
   </si>
+  <si>
+    <t>1 % Less</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -2047,14 +2052,14 @@
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2901,6 +2906,9 @@
     <xf numFmtId="2" fontId="5" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2913,12 +2921,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2931,45 +2978,6 @@
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3040,9 +3048,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3136,7 +3141,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +3153,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3171,14 +3176,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3312,7 +3317,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3324,7 +3329,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3347,14 +3352,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3386,7 +3391,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3403,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3421,14 +3426,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3488,7 +3493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3520,9 +3525,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3554,6 +3560,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3729,11 +3736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3750,33 +3757,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="291"/>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
+      <c r="A1" s="292"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="292"/>
-      <c r="B2" s="289" t="s">
+      <c r="A2" s="293"/>
+      <c r="B2" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="292"/>
-      <c r="B3" s="290" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
+      <c r="A3" s="293"/>
+      <c r="B3" s="291" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="292"/>
+      <c r="A4" s="293"/>
       <c r="B4" s="34" t="s">
         <v>0</v>
       </c>
@@ -3794,7 +3801,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="292"/>
+      <c r="A5" s="293"/>
       <c r="B5" s="36" t="s">
         <v>3</v>
       </c>
@@ -3812,9 +3819,9 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="292"/>
+      <c r="A6" s="293"/>
       <c r="B6" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="37">
         <v>0</v>
@@ -3830,9 +3837,9 @@
       <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="292"/>
+      <c r="A7" s="293"/>
       <c r="B7" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="37">
         <v>0</v>
@@ -3849,7 +3856,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="292"/>
+      <c r="A8" s="293"/>
       <c r="B8" s="38" t="s">
         <v>162</v>
       </c>
@@ -3868,7 +3875,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="292"/>
+      <c r="A9" s="293"/>
       <c r="B9" s="38" t="s">
         <v>164</v>
       </c>
@@ -3887,9 +3894,9 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="292"/>
+      <c r="A10" s="293"/>
       <c r="B10" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="40">
         <v>0</v>
@@ -3906,9 +3913,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="292"/>
+      <c r="A11" s="293"/>
       <c r="B11" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C11" s="37">
         <v>0</v>
@@ -3925,9 +3932,9 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="292"/>
+      <c r="A12" s="293"/>
       <c r="B12" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C12" s="37">
         <v>270000</v>
@@ -3944,9 +3951,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="292"/>
+      <c r="A13" s="293"/>
       <c r="B13" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="37">
         <v>365000</v>
@@ -3963,9 +3970,9 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="292"/>
+      <c r="A14" s="293"/>
       <c r="B14" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" s="37">
         <v>467000</v>
@@ -3982,9 +3989,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="292"/>
+      <c r="A15" s="293"/>
       <c r="B15" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="37">
         <v>380000</v>
@@ -4001,9 +4008,9 @@
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="292"/>
+      <c r="A16" s="293"/>
       <c r="B16" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C16" s="37">
         <v>985000</v>
@@ -4020,9 +4027,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="292"/>
+      <c r="A17" s="293"/>
       <c r="B17" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C17" s="37">
         <v>0</v>
@@ -4039,9 +4046,9 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="292"/>
+      <c r="A18" s="293"/>
       <c r="B18" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C18" s="37">
         <v>365000</v>
@@ -4058,9 +4065,9 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="292"/>
+      <c r="A19" s="293"/>
       <c r="B19" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19" s="37">
         <v>425000</v>
@@ -4077,9 +4084,9 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="292"/>
+      <c r="A20" s="293"/>
       <c r="B20" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C20" s="37">
         <v>600000</v>
@@ -4096,9 +4103,9 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="292"/>
+      <c r="A21" s="293"/>
       <c r="B21" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" s="37">
         <v>160000</v>
@@ -4115,9 +4122,9 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="292"/>
+      <c r="A22" s="293"/>
       <c r="B22" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C22" s="37">
         <v>660000</v>
@@ -4134,9 +4141,9 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="292"/>
+      <c r="A23" s="293"/>
       <c r="B23" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="37">
         <v>0</v>
@@ -4153,9 +4160,9 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="292"/>
+      <c r="A24" s="293"/>
       <c r="B24" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="37">
         <v>0</v>
@@ -4172,9 +4179,9 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="292"/>
+      <c r="A25" s="293"/>
       <c r="B25" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C25" s="37">
         <v>1110000</v>
@@ -4191,9 +4198,9 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="292"/>
+      <c r="A26" s="293"/>
       <c r="B26" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C26" s="37">
         <v>570000</v>
@@ -4210,9 +4217,9 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="292"/>
+      <c r="A27" s="293"/>
       <c r="B27" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" s="37">
         <v>560000</v>
@@ -4229,9 +4236,9 @@
       <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="292"/>
+      <c r="A28" s="293"/>
       <c r="B28" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C28" s="37">
         <v>280000</v>
@@ -4248,9 +4255,9 @@
       <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="292"/>
+      <c r="A29" s="293"/>
       <c r="B29" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C29" s="37">
         <v>0</v>
@@ -4267,9 +4274,9 @@
       <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="292"/>
+      <c r="A30" s="293"/>
       <c r="B30" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="37">
         <v>1450000</v>
@@ -4286,9 +4293,9 @@
       <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="292"/>
+      <c r="A31" s="293"/>
       <c r="B31" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="288">
         <v>1000000</v>
@@ -4300,14 +4307,14 @@
         <f t="shared" si="0"/>
         <v>33844</v>
       </c>
-      <c r="F31" s="336" t="s">
-        <v>243</v>
+      <c r="F31" s="289" t="s">
+        <v>242</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="33"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="292"/>
+      <c r="A32" s="293"/>
       <c r="B32" s="38"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -4320,7 +4327,7 @@
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="292"/>
+      <c r="A33" s="293"/>
       <c r="B33" s="38"/>
       <c r="C33" s="37"/>
       <c r="D33" s="40"/>
@@ -4333,7 +4340,7 @@
       <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="292"/>
+      <c r="A34" s="293"/>
       <c r="B34" s="38"/>
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
@@ -4346,7 +4353,7 @@
       <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="292"/>
+      <c r="A35" s="293"/>
       <c r="B35" s="38"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
@@ -4359,7 +4366,7 @@
       <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="292"/>
+      <c r="A36" s="293"/>
       <c r="B36" s="38"/>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
@@ -4372,7 +4379,7 @@
       <c r="H36" s="33"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="292"/>
+      <c r="A37" s="293"/>
       <c r="B37" s="38"/>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
@@ -4385,7 +4392,7 @@
       <c r="H37" s="33"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="292"/>
+      <c r="A38" s="293"/>
       <c r="B38" s="38"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
@@ -4398,7 +4405,7 @@
       <c r="H38" s="33"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="292"/>
+      <c r="A39" s="293"/>
       <c r="B39" s="38"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
@@ -4411,7 +4418,7 @@
       <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="292"/>
+      <c r="A40" s="293"/>
       <c r="B40" s="38"/>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
@@ -4424,7 +4431,7 @@
       <c r="H40" s="33"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="292"/>
+      <c r="A41" s="293"/>
       <c r="B41" s="38"/>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
@@ -4437,7 +4444,7 @@
       <c r="H41" s="33"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="292"/>
+      <c r="A42" s="293"/>
       <c r="B42" s="38"/>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
@@ -4450,7 +4457,7 @@
       <c r="H42" s="33"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="292"/>
+      <c r="A43" s="293"/>
       <c r="B43" s="38"/>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
@@ -4463,7 +4470,7 @@
       <c r="H43" s="33"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="292"/>
+      <c r="A44" s="293"/>
       <c r="B44" s="38"/>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
@@ -4476,7 +4483,7 @@
       <c r="H44" s="33"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="292"/>
+      <c r="A45" s="293"/>
       <c r="B45" s="38"/>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
@@ -4489,7 +4496,7 @@
       <c r="H45" s="33"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="292"/>
+      <c r="A46" s="293"/>
       <c r="B46" s="38"/>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
@@ -4502,7 +4509,7 @@
       <c r="H46" s="33"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="292"/>
+      <c r="A47" s="293"/>
       <c r="B47" s="38"/>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
@@ -4515,7 +4522,7 @@
       <c r="H47" s="33"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="292"/>
+      <c r="A48" s="293"/>
       <c r="B48" s="38"/>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
@@ -4528,7 +4535,7 @@
       <c r="H48" s="33"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="292"/>
+      <c r="A49" s="293"/>
       <c r="B49" s="38"/>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
@@ -4541,7 +4548,7 @@
       <c r="H49" s="33"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="292"/>
+      <c r="A50" s="293"/>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
@@ -4554,7 +4561,7 @@
       <c r="H50" s="33"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="292"/>
+      <c r="A51" s="293"/>
       <c r="B51" s="38"/>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
@@ -4567,7 +4574,7 @@
       <c r="H51" s="33"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="292"/>
+      <c r="A52" s="293"/>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
@@ -4580,7 +4587,7 @@
       <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="292"/>
+      <c r="A53" s="293"/>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
@@ -4593,7 +4600,7 @@
       <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="292"/>
+      <c r="A54" s="293"/>
       <c r="B54" s="38"/>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
@@ -4606,7 +4613,7 @@
       <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="292"/>
+      <c r="A55" s="293"/>
       <c r="B55" s="38"/>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
@@ -4618,7 +4625,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="292"/>
+      <c r="A56" s="293"/>
       <c r="B56" s="38"/>
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
@@ -4630,7 +4637,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="292"/>
+      <c r="A57" s="293"/>
       <c r="B57" s="38"/>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
@@ -4642,7 +4649,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="292"/>
+      <c r="A58" s="293"/>
       <c r="B58" s="38"/>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
@@ -4654,7 +4661,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="292"/>
+      <c r="A59" s="293"/>
       <c r="B59" s="38"/>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
@@ -4666,7 +4673,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="292"/>
+      <c r="A60" s="293"/>
       <c r="B60" s="38"/>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
@@ -4678,7 +4685,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="292"/>
+      <c r="A61" s="293"/>
       <c r="B61" s="38"/>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
@@ -4690,7 +4697,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="292"/>
+      <c r="A62" s="293"/>
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
@@ -4702,7 +4709,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="292"/>
+      <c r="A63" s="293"/>
       <c r="B63" s="38"/>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
@@ -4714,7 +4721,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="292"/>
+      <c r="A64" s="293"/>
       <c r="B64" s="38"/>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
@@ -4726,7 +4733,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="292"/>
+      <c r="A65" s="293"/>
       <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
@@ -4738,7 +4745,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="292"/>
+      <c r="A66" s="293"/>
       <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
@@ -4750,7 +4757,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="292"/>
+      <c r="A67" s="293"/>
       <c r="B67" s="38"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -4762,7 +4769,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="292"/>
+      <c r="A68" s="293"/>
       <c r="B68" s="38"/>
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
@@ -4774,7 +4781,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="292"/>
+      <c r="A69" s="293"/>
       <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
@@ -4786,7 +4793,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="292"/>
+      <c r="A70" s="293"/>
       <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -4798,7 +4805,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="292"/>
+      <c r="A71" s="293"/>
       <c r="B71" s="38"/>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
@@ -4810,7 +4817,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="292"/>
+      <c r="A72" s="293"/>
       <c r="B72" s="38"/>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
@@ -4822,7 +4829,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="292"/>
+      <c r="A73" s="293"/>
       <c r="B73" s="38"/>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
@@ -4834,7 +4841,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="292"/>
+      <c r="A74" s="293"/>
       <c r="B74" s="38"/>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
@@ -4846,7 +4853,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="292"/>
+      <c r="A75" s="293"/>
       <c r="B75" s="38"/>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
@@ -4858,7 +4865,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="292"/>
+      <c r="A76" s="293"/>
       <c r="B76" s="38"/>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
@@ -4870,7 +4877,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="292"/>
+      <c r="A77" s="293"/>
       <c r="B77" s="38"/>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -4882,7 +4889,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="292"/>
+      <c r="A78" s="293"/>
       <c r="B78" s="38"/>
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
@@ -4894,7 +4901,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="292"/>
+      <c r="A79" s="293"/>
       <c r="B79" s="38"/>
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
@@ -4906,7 +4913,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="292"/>
+      <c r="A80" s="293"/>
       <c r="B80" s="38"/>
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
@@ -4918,7 +4925,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="292"/>
+      <c r="A81" s="293"/>
       <c r="B81" s="38"/>
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
@@ -4930,7 +4937,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="292"/>
+      <c r="A82" s="293"/>
       <c r="B82" s="38"/>
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
@@ -4942,7 +4949,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="292"/>
+      <c r="A83" s="293"/>
       <c r="B83" s="43"/>
       <c r="C83" s="39">
         <f>SUM(C5:C72)</f>
@@ -4978,14 +4985,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="13" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4997,73 +5004,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="299"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
-      <c r="P1" s="299"/>
-      <c r="Q1" s="299"/>
-      <c r="R1" s="299"/>
-      <c r="S1" s="299"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
+      <c r="Q1" s="294"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="294"/>
     </row>
     <row r="2" spans="1:26" s="189" customFormat="1" ht="18">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="295" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
-      <c r="N2" s="300"/>
-      <c r="O2" s="300"/>
-      <c r="P2" s="300"/>
-      <c r="Q2" s="300"/>
-      <c r="R2" s="300"/>
-      <c r="S2" s="300"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
     </row>
     <row r="3" spans="1:26" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="301" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="302"/>
-      <c r="H3" s="302"/>
-      <c r="I3" s="302"/>
-      <c r="J3" s="302"/>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
-      <c r="R3" s="302"/>
-      <c r="S3" s="303"/>
+      <c r="A3" s="296" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="298"/>
       <c r="U3" s="105"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -5072,58 +5079,58 @@
       <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="299" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="301" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="293" t="s">
+      <c r="C4" s="303" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="293" t="s">
+      <c r="D4" s="303" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="293" t="s">
+      <c r="E4" s="303" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="293" t="s">
+      <c r="F4" s="303" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="293" t="s">
+      <c r="G4" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="293" t="s">
+      <c r="H4" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="293" t="s">
+      <c r="I4" s="303" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="293" t="s">
+      <c r="J4" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="293" t="s">
+      <c r="K4" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="293" t="s">
+      <c r="L4" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="293" t="s">
+      <c r="M4" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="293" t="s">
+      <c r="N4" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="295" t="s">
-        <v>167</v>
-      </c>
-      <c r="P4" s="297" t="s">
+      <c r="O4" s="309" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="311" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="310" t="s">
+      <c r="Q4" s="307" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="308" t="s">
+      <c r="R4" s="305" t="s">
         <v>109</v>
       </c>
       <c r="S4" s="191" t="s">
@@ -5136,24 +5143,24 @@
       <c r="Y4" s="194"/>
     </row>
     <row r="5" spans="1:26" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="305"/>
-      <c r="B5" s="307"/>
-      <c r="C5" s="294"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="294"/>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="294"/>
-      <c r="N5" s="294"/>
-      <c r="O5" s="296"/>
-      <c r="P5" s="298"/>
-      <c r="Q5" s="311"/>
-      <c r="R5" s="309"/>
+      <c r="A5" s="300"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="310"/>
+      <c r="P5" s="312"/>
+      <c r="Q5" s="308"/>
+      <c r="R5" s="306"/>
       <c r="S5" s="196" t="s">
         <v>110</v>
       </c>
@@ -5166,7 +5173,7 @@
     </row>
     <row r="6" spans="1:26" s="21" customFormat="1">
       <c r="A6" s="200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="201">
         <v>1000</v>
@@ -5210,7 +5217,7 @@
     </row>
     <row r="7" spans="1:26" s="21" customFormat="1">
       <c r="A7" s="200" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="201">
         <v>1000</v>
@@ -5250,7 +5257,7 @@
     </row>
     <row r="8" spans="1:26" s="21" customFormat="1">
       <c r="A8" s="200" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="208">
         <v>500</v>
@@ -5296,7 +5303,7 @@
     </row>
     <row r="9" spans="1:26" s="21" customFormat="1">
       <c r="A9" s="200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="208">
         <v>1300</v>
@@ -5338,7 +5345,7 @@
     </row>
     <row r="10" spans="1:26" s="21" customFormat="1">
       <c r="A10" s="200" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B10" s="208">
         <v>1000</v>
@@ -5382,7 +5389,7 @@
     </row>
     <row r="11" spans="1:26" s="21" customFormat="1">
       <c r="A11" s="200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="208">
         <v>800</v>
@@ -5424,7 +5431,7 @@
     </row>
     <row r="12" spans="1:26" s="21" customFormat="1">
       <c r="A12" s="200" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="208"/>
       <c r="C12" s="201"/>
@@ -5464,7 +5471,7 @@
     </row>
     <row r="13" spans="1:26" s="21" customFormat="1">
       <c r="A13" s="200" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="208">
         <v>500</v>
@@ -5510,7 +5517,7 @@
     </row>
     <row r="14" spans="1:26" s="21" customFormat="1">
       <c r="A14" s="200" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B14" s="208">
         <v>1000</v>
@@ -5552,7 +5559,7 @@
     </row>
     <row r="15" spans="1:26" s="21" customFormat="1">
       <c r="A15" s="200" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B15" s="208">
         <v>300</v>
@@ -5596,7 +5603,7 @@
     </row>
     <row r="16" spans="1:26" s="21" customFormat="1">
       <c r="A16" s="200" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="208">
         <v>1750</v>
@@ -5644,7 +5651,7 @@
     </row>
     <row r="17" spans="1:25" s="21" customFormat="1">
       <c r="A17" s="200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="208">
         <v>1300</v>
@@ -5684,7 +5691,7 @@
     </row>
     <row r="18" spans="1:25" s="21" customFormat="1">
       <c r="A18" s="200" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="208"/>
       <c r="C18" s="201">
@@ -5728,7 +5735,7 @@
     </row>
     <row r="19" spans="1:25" s="21" customFormat="1">
       <c r="A19" s="200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" s="208">
         <v>800</v>
@@ -5770,7 +5777,7 @@
     </row>
     <row r="20" spans="1:25" s="21" customFormat="1">
       <c r="A20" s="200" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" s="208">
         <v>500</v>
@@ -5812,7 +5819,7 @@
     </row>
     <row r="21" spans="1:25" s="21" customFormat="1">
       <c r="A21" s="200" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21" s="208">
         <v>1000</v>
@@ -5852,7 +5859,7 @@
     </row>
     <row r="22" spans="1:25" s="21" customFormat="1">
       <c r="A22" s="200" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="208">
         <v>1000</v>
@@ -5892,7 +5899,7 @@
     </row>
     <row r="23" spans="1:25" s="216" customFormat="1">
       <c r="A23" s="200" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" s="208">
         <v>800</v>
@@ -5928,7 +5935,7 @@
     </row>
     <row r="24" spans="1:25" s="21" customFormat="1">
       <c r="A24" s="200" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="208">
         <v>500</v>
@@ -5969,7 +5976,7 @@
     </row>
     <row r="25" spans="1:25" s="216" customFormat="1">
       <c r="A25" s="200" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B25" s="208">
         <v>1300</v>
@@ -6009,7 +6016,7 @@
     </row>
     <row r="26" spans="1:25" s="21" customFormat="1">
       <c r="A26" s="200" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B26" s="208">
         <v>500</v>
@@ -6047,7 +6054,7 @@
     </row>
     <row r="27" spans="1:25" s="21" customFormat="1">
       <c r="A27" s="200" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B27" s="208">
         <v>500</v>
@@ -6087,7 +6094,7 @@
     </row>
     <row r="28" spans="1:25" s="21" customFormat="1">
       <c r="A28" s="200" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="208">
         <v>1300</v>
@@ -6129,7 +6136,7 @@
     </row>
     <row r="29" spans="1:25" s="21" customFormat="1">
       <c r="A29" s="200" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B29" s="208">
         <v>500</v>
@@ -6156,7 +6163,9 @@
         <v>692</v>
       </c>
       <c r="N29" s="242"/>
-      <c r="O29" s="209"/>
+      <c r="O29" s="209">
+        <v>2615</v>
+      </c>
       <c r="P29" s="209">
         <v>10000</v>
       </c>
@@ -6164,7 +6173,7 @@
       <c r="R29" s="211"/>
       <c r="S29" s="205">
         <f t="shared" si="0"/>
-        <v>12977</v>
+        <v>15592</v>
       </c>
       <c r="T29" s="206"/>
       <c r="U29" s="218"/>
@@ -6407,7 +6416,7 @@
       </c>
       <c r="O37" s="227">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2615</v>
       </c>
       <c r="P37" s="227">
         <f t="shared" si="1"/>
@@ -6423,7 +6432,7 @@
       </c>
       <c r="S37" s="229">
         <f>SUM(S6:S36)</f>
-        <v>63412</v>
+        <v>66027</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -8428,6 +8437,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8444,11 +8458,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8458,11 +8467,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI252"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -8488,14 +8497,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="319" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
       <c r="L1" s="91"/>
       <c r="M1" s="247"/>
       <c r="N1" s="247"/>
@@ -8548,14 +8557,14 @@
       <c r="BI1" s="247"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="319" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
+      <c r="A2" s="320" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
       <c r="L2" s="91"/>
       <c r="M2" s="247"/>
       <c r="N2" s="247"/>
@@ -8608,14 +8617,14 @@
       <c r="BI2" s="247"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="321" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
       <c r="K3" s="247"/>
       <c r="L3" s="91"/>
       <c r="M3" s="247"/>
@@ -8747,7 +8756,7 @@
     </row>
     <row r="5" spans="1:61">
       <c r="A5" s="93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="94">
         <v>319760</v>
@@ -8823,7 +8832,7 @@
     </row>
     <row r="6" spans="1:61">
       <c r="A6" s="98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="99">
         <v>414855</v>
@@ -8899,7 +8908,7 @@
     </row>
     <row r="7" spans="1:61">
       <c r="A7" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="99">
         <v>399980</v>
@@ -8975,7 +8984,7 @@
     </row>
     <row r="8" spans="1:61">
       <c r="A8" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="99">
         <v>467090</v>
@@ -9051,7 +9060,7 @@
     </row>
     <row r="9" spans="1:61">
       <c r="A9" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="99">
         <v>278100</v>
@@ -9127,7 +9136,7 @@
     </row>
     <row r="10" spans="1:61">
       <c r="A10" s="98" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B10" s="99">
         <v>331620</v>
@@ -9203,7 +9212,7 @@
     </row>
     <row r="11" spans="1:61">
       <c r="A11" s="98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="99">
         <v>417465</v>
@@ -9279,7 +9288,7 @@
     </row>
     <row r="12" spans="1:61">
       <c r="A12" s="98" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="99">
         <v>335360</v>
@@ -9355,7 +9364,7 @@
     </row>
     <row r="13" spans="1:61">
       <c r="A13" s="98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B13" s="99">
         <v>479430</v>
@@ -9431,7 +9440,7 @@
     </row>
     <row r="14" spans="1:61">
       <c r="A14" s="98" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="99">
         <v>565365</v>
@@ -9507,7 +9516,7 @@
     </row>
     <row r="15" spans="1:61">
       <c r="A15" s="98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="99">
         <v>526840</v>
@@ -9583,7 +9592,7 @@
     </row>
     <row r="16" spans="1:61">
       <c r="A16" s="98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B16" s="99">
         <v>550880</v>
@@ -9659,7 +9668,7 @@
     </row>
     <row r="17" spans="1:61">
       <c r="A17" s="98" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="99">
         <v>377170</v>
@@ -9735,7 +9744,7 @@
     </row>
     <row r="18" spans="1:61">
       <c r="A18" s="98" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B18" s="99">
         <v>307965</v>
@@ -9811,7 +9820,7 @@
     </row>
     <row r="19" spans="1:61">
       <c r="A19" s="98" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="99">
         <v>317125</v>
@@ -9887,7 +9896,7 @@
     </row>
     <row r="20" spans="1:61">
       <c r="A20" s="98" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="99">
         <v>639190</v>
@@ -9963,7 +9972,7 @@
     </row>
     <row r="21" spans="1:61">
       <c r="A21" s="98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="99">
         <v>400330</v>
@@ -10039,7 +10048,7 @@
     </row>
     <row r="22" spans="1:61">
       <c r="A22" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="99">
         <v>379695</v>
@@ -10115,7 +10124,7 @@
     </row>
     <row r="23" spans="1:61">
       <c r="A23" s="98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" s="99">
         <v>667595</v>
@@ -10191,7 +10200,7 @@
     </row>
     <row r="24" spans="1:61">
       <c r="A24" s="98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B24" s="99">
         <v>557870</v>
@@ -10267,7 +10276,7 @@
     </row>
     <row r="25" spans="1:61">
       <c r="A25" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="99">
         <v>305765</v>
@@ -10343,7 +10352,7 @@
     </row>
     <row r="26" spans="1:61">
       <c r="A26" s="98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="99">
         <v>545615</v>
@@ -10419,7 +10428,7 @@
     </row>
     <row r="27" spans="1:61">
       <c r="A27" s="98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="99">
         <v>807365</v>
@@ -10495,7 +10504,7 @@
     </row>
     <row r="28" spans="1:61">
       <c r="A28" s="98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="99">
         <v>401815</v>
@@ -10983,12 +10992,12 @@
       <c r="BI34" s="247"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="321" t="s">
+      <c r="A35" s="322" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="322"/>
-      <c r="C35" s="322"/>
-      <c r="D35" s="323"/>
+      <c r="B35" s="323"/>
+      <c r="C35" s="323"/>
+      <c r="D35" s="324"/>
       <c r="E35" s="105"/>
       <c r="F35" s="107"/>
       <c r="G35" s="121"/>
@@ -11135,7 +11144,7 @@
         <v>19600</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" s="105"/>
       <c r="F37" s="100"/>
@@ -11460,7 +11469,7 @@
         <v>1535</v>
       </c>
       <c r="D42" s="92" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F42" s="249"/>
       <c r="G42" s="135"/>
@@ -11525,13 +11534,13 @@
       <c r="C43" s="269"/>
       <c r="D43" s="131"/>
       <c r="E43" s="105"/>
-      <c r="F43" s="324" t="s">
+      <c r="F43" s="325" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="324"/>
-      <c r="H43" s="324"/>
-      <c r="I43" s="324"/>
-      <c r="J43" s="324"/>
+      <c r="G43" s="325"/>
+      <c r="H43" s="325"/>
+      <c r="I43" s="325"/>
+      <c r="J43" s="325"/>
       <c r="K43" s="137"/>
       <c r="L43" s="96"/>
       <c r="M43" s="247"/>
@@ -11779,7 +11788,7 @@
         <v>7160</v>
       </c>
       <c r="D47" s="149" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="252"/>
@@ -11847,7 +11856,7 @@
         <v>140000</v>
       </c>
       <c r="D48" s="268" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="248"/>
@@ -11983,7 +11992,7 @@
         <v>325545</v>
       </c>
       <c r="D50" s="268" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="248"/>
@@ -12051,7 +12060,7 @@
         <v>265917</v>
       </c>
       <c r="D51" s="143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="96"/>
@@ -12120,7 +12129,7 @@
         <v>63285</v>
       </c>
       <c r="D52" s="140" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="248"/>
@@ -12189,7 +12198,7 @@
         <v>54450</v>
       </c>
       <c r="D53" s="146" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E53" s="104"/>
       <c r="F53" s="97"/>
@@ -12260,7 +12269,7 @@
         <v>325620</v>
       </c>
       <c r="D54" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="248"/>
@@ -12329,7 +12338,7 @@
         <v>299225</v>
       </c>
       <c r="D55" s="149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E55" s="104"/>
       <c r="F55" s="96"/>
@@ -12398,7 +12407,7 @@
         <v>188825</v>
       </c>
       <c r="D56" s="143" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E56" s="104"/>
       <c r="F56" s="96"/>
@@ -12460,14 +12469,14 @@
     </row>
     <row r="57" spans="1:61">
       <c r="A57" s="147" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B57" s="143"/>
       <c r="C57" s="142">
         <v>4000</v>
       </c>
       <c r="D57" s="149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E57" s="104"/>
       <c r="F57" s="96"/>
@@ -12529,14 +12538,14 @@
     </row>
     <row r="58" spans="1:61">
       <c r="A58" s="145" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B58" s="96"/>
       <c r="C58" s="142">
         <v>32425</v>
       </c>
       <c r="D58" s="146" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E58" s="104"/>
       <c r="F58" s="97"/>
@@ -12600,14 +12609,14 @@
     </row>
     <row r="59" spans="1:61">
       <c r="A59" s="148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B59" s="148"/>
       <c r="C59" s="142">
         <v>10000</v>
       </c>
       <c r="D59" s="146" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E59" s="104"/>
       <c r="F59" s="96"/>
@@ -12669,14 +12678,14 @@
     </row>
     <row r="60" spans="1:61">
       <c r="A60" s="145" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B60" s="96"/>
       <c r="C60" s="142">
         <v>3000</v>
       </c>
       <c r="D60" s="149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E60" s="104"/>
       <c r="F60" s="96"/>
@@ -12738,14 +12747,14 @@
     </row>
     <row r="61" spans="1:61">
       <c r="A61" s="145" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B61" s="96"/>
       <c r="C61" s="142">
         <v>14500</v>
       </c>
       <c r="D61" s="146" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E61" s="105"/>
       <c r="F61" s="96"/>
@@ -12807,20 +12816,20 @@
     </row>
     <row r="62" spans="1:61">
       <c r="A62" s="277" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B62" s="277"/>
       <c r="C62" s="142">
         <v>8000</v>
       </c>
       <c r="D62" s="149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E62" s="113"/>
-      <c r="F62" s="312" t="s">
+      <c r="F62" s="313" t="s">
         <v>143</v>
       </c>
-      <c r="G62" s="312"/>
+      <c r="G62" s="313"/>
       <c r="H62" s="246"/>
       <c r="I62" s="246"/>
       <c r="J62" s="150" t="s">
@@ -12883,10 +12892,10 @@
       <c r="BI62" s="247"/>
     </row>
     <row r="63" spans="1:61">
-      <c r="A63" s="325" t="s">
+      <c r="A63" s="326" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="326"/>
+      <c r="B63" s="327"/>
       <c r="C63" s="142"/>
       <c r="D63" s="143"/>
       <c r="E63" s="104"/>
@@ -12901,7 +12910,7 @@
         <v>19600</v>
       </c>
       <c r="J63" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K63" s="166">
         <v>19600</v>
@@ -12983,7 +12992,7 @@
         <v>3000</v>
       </c>
       <c r="J64" s="96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K64" s="166">
         <v>3000</v>
@@ -13059,13 +13068,13 @@
         <v>163</v>
       </c>
       <c r="H65" s="154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I65" s="97">
         <v>41580</v>
       </c>
       <c r="J65" s="96" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K65" s="166">
         <v>41580</v>
@@ -13133,7 +13142,7 @@
         <v>30848</v>
       </c>
       <c r="D66" s="143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E66" s="104"/>
       <c r="F66" s="158"/>
@@ -13147,7 +13156,7 @@
         <v>4500</v>
       </c>
       <c r="J66" s="159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K66" s="166">
         <v>4500</v>
@@ -13215,7 +13224,7 @@
         <v>43910</v>
       </c>
       <c r="D67" s="149" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E67" s="104"/>
       <c r="F67" s="153"/>
@@ -13229,7 +13238,7 @@
         <v>8200</v>
       </c>
       <c r="J67" s="144" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K67" s="166">
         <v>8200</v>
@@ -13311,7 +13320,7 @@
         <v>2000</v>
       </c>
       <c r="J68" s="144" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K68" s="166">
         <v>2000</v>
@@ -13379,7 +13388,7 @@
         <v>18920</v>
       </c>
       <c r="D69" s="149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E69" s="247"/>
       <c r="F69" s="153"/>
@@ -13393,7 +13402,7 @@
         <v>26745</v>
       </c>
       <c r="J69" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K69" s="166">
         <v>26745</v>
@@ -13475,7 +13484,7 @@
         <v>1000</v>
       </c>
       <c r="J70" s="144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K70" s="166">
         <v>1000</v>
@@ -13543,7 +13552,7 @@
         <v>22030</v>
       </c>
       <c r="D71" s="143" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E71" s="105"/>
       <c r="F71" s="158"/>
@@ -13615,7 +13624,7 @@
         <v>26916</v>
       </c>
       <c r="D72" s="146" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E72" s="105"/>
       <c r="F72" s="158"/>
@@ -13627,7 +13636,7 @@
         <v>7160</v>
       </c>
       <c r="J72" s="144" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K72" s="166">
         <v>7160</v>
@@ -13768,26 +13777,26 @@
     </row>
     <row r="74" spans="1:61">
       <c r="A74" s="145" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B74" s="143"/>
       <c r="C74" s="142">
         <v>2120</v>
       </c>
       <c r="D74" s="143" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E74" s="105"/>
       <c r="F74" s="158"/>
       <c r="G74" s="154" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H74" s="154"/>
       <c r="I74" s="97">
         <v>6780</v>
       </c>
       <c r="J74" s="144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K74" s="166">
         <v>6780</v>
@@ -13935,7 +13944,7 @@
         <v>18000</v>
       </c>
       <c r="D76" s="149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E76" s="104"/>
       <c r="F76" s="158"/>
@@ -13947,7 +13956,7 @@
         <v>383385</v>
       </c>
       <c r="J76" s="144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K76" s="166">
         <v>383385</v>
@@ -14107,7 +14116,7 @@
         <v>62000</v>
       </c>
       <c r="J78" s="144" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K78" s="166">
         <v>62000</v>
@@ -14175,7 +14184,7 @@
         <v>37810</v>
       </c>
       <c r="D79" s="146" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E79" s="104"/>
       <c r="F79" s="158"/>
@@ -14187,7 +14196,7 @@
         <v>78810</v>
       </c>
       <c r="J79" s="144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K79" s="166">
         <v>78810</v>
@@ -14248,14 +14257,14 @@
     </row>
     <row r="80" spans="1:61">
       <c r="A80" s="145" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B80" s="143"/>
       <c r="C80" s="142">
         <v>8795</v>
       </c>
       <c r="D80" s="143" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E80" s="104"/>
       <c r="F80" s="158"/>
@@ -14267,7 +14276,7 @@
         <v>214000</v>
       </c>
       <c r="J80" s="159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K80" s="166">
         <v>214000</v>
@@ -14335,7 +14344,7 @@
         <v>11790</v>
       </c>
       <c r="D81" s="146" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E81" s="104"/>
       <c r="F81" s="161"/>
@@ -14347,7 +14356,7 @@
         <v>533611</v>
       </c>
       <c r="J81" s="144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K81" s="166">
         <v>533611</v>
@@ -14415,7 +14424,7 @@
         <v>30000</v>
       </c>
       <c r="D82" s="146" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E82" s="105"/>
       <c r="F82" s="162"/>
@@ -14427,7 +14436,7 @@
         <v>190000</v>
       </c>
       <c r="J82" s="96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K82" s="166">
         <v>190000</v>
@@ -14488,26 +14497,26 @@
     </row>
     <row r="83" spans="1:61">
       <c r="A83" s="141" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B83" s="96"/>
       <c r="C83" s="142">
         <v>13045</v>
       </c>
       <c r="D83" s="149" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E83" s="105"/>
       <c r="F83" s="162"/>
       <c r="G83" s="154" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H83" s="154"/>
       <c r="I83" s="97">
         <v>4000</v>
       </c>
       <c r="J83" s="97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K83" s="166">
         <v>4000</v>
@@ -14580,14 +14589,14 @@
       <c r="E84" s="105"/>
       <c r="F84" s="161"/>
       <c r="G84" s="154" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H84" s="154"/>
       <c r="I84" s="97">
         <v>5000</v>
       </c>
       <c r="J84" s="144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K84" s="166">
         <v>5000</v>
@@ -14648,26 +14657,26 @@
     </row>
     <row r="85" spans="1:61">
       <c r="A85" s="145" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B85" s="143"/>
       <c r="C85" s="142">
         <v>20070</v>
       </c>
       <c r="D85" s="143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E85" s="105"/>
       <c r="F85" s="161"/>
       <c r="G85" s="154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H85" s="154"/>
       <c r="I85" s="97">
         <v>14000</v>
       </c>
       <c r="J85" s="144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K85" s="166">
         <v>14000</v>
@@ -14735,19 +14744,19 @@
         <v>25000</v>
       </c>
       <c r="D86" s="146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E86" s="105"/>
       <c r="F86" s="158"/>
       <c r="G86" s="154" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H86" s="154"/>
       <c r="I86" s="97">
         <v>10000</v>
       </c>
       <c r="J86" s="144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K86" s="166">
         <v>10000</v>
@@ -14815,7 +14824,7 @@
         <v>28000</v>
       </c>
       <c r="D87" s="146" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87" s="104"/>
       <c r="F87" s="158"/>
@@ -15133,7 +15142,7 @@
         <v>30978</v>
       </c>
       <c r="J91" s="144" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K91" s="166">
         <v>30978</v>
@@ -15201,7 +15210,7 @@
         <v>19505</v>
       </c>
       <c r="D92" s="146" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F92" s="158"/>
       <c r="G92" s="154" t="s">
@@ -15212,7 +15221,7 @@
         <v>43910</v>
       </c>
       <c r="J92" s="144" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K92" s="166">
         <v>43910</v>
@@ -15273,14 +15282,14 @@
     </row>
     <row r="93" spans="1:61">
       <c r="A93" s="145" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B93" s="96"/>
       <c r="C93" s="142">
         <v>12620</v>
       </c>
       <c r="D93" s="143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F93" s="158"/>
       <c r="G93" s="156" t="s">
@@ -15352,14 +15361,14 @@
     </row>
     <row r="94" spans="1:61">
       <c r="A94" s="145" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B94" s="143"/>
       <c r="C94" s="142">
         <v>4230</v>
       </c>
       <c r="D94" s="143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F94" s="153"/>
       <c r="G94" s="154" t="s">
@@ -15370,7 +15379,7 @@
         <v>10570</v>
       </c>
       <c r="J94" s="144" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K94" s="166">
         <v>10570</v>
@@ -15431,14 +15440,14 @@
     </row>
     <row r="95" spans="1:61">
       <c r="A95" s="145" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B95" s="143"/>
       <c r="C95" s="142">
         <v>3400</v>
       </c>
       <c r="D95" s="143" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F95" s="158"/>
       <c r="G95" s="154" t="s">
@@ -15510,14 +15519,14 @@
     </row>
     <row r="96" spans="1:61">
       <c r="A96" s="145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B96" s="96"/>
       <c r="C96" s="142">
         <v>10345</v>
       </c>
       <c r="D96" s="146" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F96" s="162"/>
       <c r="G96" s="156" t="s">
@@ -15607,7 +15616,7 @@
         <v>23506</v>
       </c>
       <c r="J97" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K97" s="166">
         <v>23506</v>
@@ -15741,14 +15750,14 @@
     </row>
     <row r="99" spans="1:61">
       <c r="A99" s="145" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B99" s="143"/>
       <c r="C99" s="142">
         <v>3640</v>
       </c>
       <c r="D99" s="143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F99" s="162"/>
       <c r="G99" s="154" t="s">
@@ -15820,14 +15829,14 @@
     </row>
     <row r="100" spans="1:61">
       <c r="A100" s="145" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B100" s="143"/>
       <c r="C100" s="142">
         <v>6000</v>
       </c>
       <c r="D100" s="143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F100" s="162"/>
       <c r="G100" s="154" t="s">
@@ -15838,7 +15847,7 @@
         <v>18000</v>
       </c>
       <c r="J100" s="144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K100" s="166">
         <v>18000</v>
@@ -16073,7 +16082,7 @@
         <v>27570</v>
       </c>
       <c r="J103" s="144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K103" s="166">
         <v>27570</v>
@@ -16134,14 +16143,14 @@
     </row>
     <row r="104" spans="1:61">
       <c r="A104" s="145" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B104" s="143"/>
       <c r="C104" s="142">
         <v>20000</v>
       </c>
       <c r="D104" s="143" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F104" s="162"/>
       <c r="G104" s="154" t="s">
@@ -16230,7 +16239,7 @@
         <v>30000</v>
       </c>
       <c r="J105" s="144" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K105" s="166">
         <v>30000</v>
@@ -16301,14 +16310,14 @@
       </c>
       <c r="F106" s="162"/>
       <c r="G106" s="154" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H106" s="154"/>
       <c r="I106" s="97">
         <v>13045</v>
       </c>
       <c r="J106" s="144" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K106" s="166">
         <v>13045</v>
@@ -16442,14 +16451,14 @@
     </row>
     <row r="108" spans="1:61">
       <c r="A108" s="145" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B108" s="143"/>
       <c r="C108" s="142">
         <v>10000</v>
       </c>
       <c r="D108" s="143" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F108" s="162"/>
       <c r="G108" s="154" t="s">
@@ -16518,25 +16527,25 @@
     </row>
     <row r="109" spans="1:61">
       <c r="A109" s="145" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B109" s="143"/>
       <c r="C109" s="142">
         <v>1150</v>
       </c>
       <c r="D109" s="143" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F109" s="162"/>
       <c r="G109" s="154" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H109" s="154"/>
       <c r="I109" s="97">
         <v>35070</v>
       </c>
       <c r="J109" s="144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K109" s="166">
         <v>35070</v>
@@ -16691,7 +16700,7 @@
         <v>30000</v>
       </c>
       <c r="J111" s="144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K111" s="166">
         <v>30000</v>
@@ -17094,7 +17103,7 @@
         <v>23505</v>
       </c>
       <c r="J116" s="159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K116" s="166">
         <v>23505</v>
@@ -17168,14 +17177,14 @@
       </c>
       <c r="F117" s="162"/>
       <c r="G117" s="156" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H117" s="156"/>
       <c r="I117" s="157">
         <v>12620</v>
       </c>
       <c r="J117" s="159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K117" s="166">
         <v>12620</v>
@@ -17236,25 +17245,25 @@
     </row>
     <row r="118" spans="1:61">
       <c r="A118" s="145" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B118" s="149"/>
       <c r="C118" s="142">
         <v>500</v>
       </c>
       <c r="D118" s="143" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F118" s="162"/>
       <c r="G118" s="154" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H118" s="154"/>
       <c r="I118" s="97">
         <v>3400</v>
       </c>
       <c r="J118" s="96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K118" s="166">
         <v>3400</v>
@@ -17314,10 +17323,10 @@
       <c r="BI118" s="247"/>
     </row>
     <row r="119" spans="1:61">
-      <c r="A119" s="313" t="s">
+      <c r="A119" s="314" t="s">
         <v>92</v>
       </c>
-      <c r="B119" s="314"/>
+      <c r="B119" s="315"/>
       <c r="C119" s="165">
         <f>SUM(C37:C118)</f>
         <v>2707391</v>
@@ -17465,10 +17474,10 @@
       <c r="BI120" s="247"/>
     </row>
     <row r="121" spans="1:61">
-      <c r="A121" s="315" t="s">
+      <c r="A121" s="316" t="s">
         <v>93</v>
       </c>
-      <c r="B121" s="316"/>
+      <c r="B121" s="317"/>
       <c r="C121" s="170">
         <f>C119+L142</f>
         <v>2707391</v>
@@ -17476,14 +17485,14 @@
       <c r="D121" s="171"/>
       <c r="F121" s="153"/>
       <c r="G121" s="156" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H121" s="156"/>
       <c r="I121" s="157">
         <v>34900</v>
       </c>
       <c r="J121" s="159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K121" s="166">
         <v>34900</v>
@@ -17770,7 +17779,7 @@
         <v>3000</v>
       </c>
       <c r="J125" s="159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K125" s="166">
         <v>3000</v>
@@ -18059,14 +18068,14 @@
       <c r="D129" s="136"/>
       <c r="F129" s="153"/>
       <c r="G129" s="154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H129" s="154"/>
       <c r="I129" s="97">
         <v>2300</v>
       </c>
       <c r="J129" s="144" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K129" s="166">
         <v>2300</v>
@@ -18132,14 +18141,14 @@
       <c r="D130" s="184"/>
       <c r="F130" s="158"/>
       <c r="G130" s="154" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H130" s="154"/>
       <c r="I130" s="97">
         <v>3000</v>
       </c>
       <c r="J130" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K130" s="166">
         <v>3000</v>
@@ -19541,8 +19550,8 @@
       <c r="N175" s="251"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="317"/>
-      <c r="G176" s="317"/>
+      <c r="F176" s="318"/>
+      <c r="G176" s="318"/>
       <c r="H176" s="247"/>
       <c r="I176" s="111"/>
       <c r="J176" s="91"/>
@@ -20195,7 +20204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -20219,24 +20228,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="327" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="329"/>
+      <c r="A1" s="328" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="329"/>
+      <c r="C1" s="329"/>
+      <c r="D1" s="329"/>
+      <c r="E1" s="330"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="330" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="331"/>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="332"/>
+      <c r="A2" s="331" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
+      <c r="D2" s="332"/>
+      <c r="E2" s="333"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -20529,7 +20538,7 @@
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="69">
         <v>2452252</v>
@@ -20565,7 +20574,7 @@
     </row>
     <row r="11" spans="1:29" ht="21.75">
       <c r="A11" s="264" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B11" s="71">
         <v>1000000</v>
@@ -20715,13 +20724,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="333" t="s">
+      <c r="A15" s="334" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="334"/>
-      <c r="C15" s="334"/>
-      <c r="D15" s="334"/>
-      <c r="E15" s="335"/>
+      <c r="B15" s="335"/>
+      <c r="C15" s="335"/>
+      <c r="D15" s="335"/>
+      <c r="E15" s="336"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="27"/>
@@ -20904,7 +20913,7 @@
     </row>
     <row r="20" spans="1:29" ht="21.75">
       <c r="A20" s="279" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20" s="280">
         <v>40450</v>
@@ -20942,7 +20951,7 @@
     </row>
     <row r="21" spans="1:29" ht="21.75">
       <c r="A21" s="279" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B21" s="280">
         <v>35070</v>
@@ -21025,7 +21034,7 @@
       </c>
       <c r="C23" s="285"/>
       <c r="D23" s="275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E23" s="276">
         <v>140000</v>

--- a/Symphony/2021/February/All Details/28.02.2021/MC Bank Statement Feb-2021.xlsx
+++ b/Symphony/2021/February/All Details/28.02.2021/MC Bank Statement Feb-2021.xlsx
@@ -2921,6 +2921,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2948,12 +2966,6 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2964,18 +2976,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4989,10 +4989,10 @@
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="13" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5004,73 +5004,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
-      <c r="P1" s="294"/>
-      <c r="Q1" s="294"/>
-      <c r="R1" s="294"/>
-      <c r="S1" s="294"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
+      <c r="P1" s="300"/>
+      <c r="Q1" s="300"/>
+      <c r="R1" s="300"/>
+      <c r="S1" s="300"/>
     </row>
     <row r="2" spans="1:26" s="189" customFormat="1" ht="18">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="301" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
-      <c r="L2" s="295"/>
-      <c r="M2" s="295"/>
-      <c r="N2" s="295"/>
-      <c r="O2" s="295"/>
-      <c r="P2" s="295"/>
-      <c r="Q2" s="295"/>
-      <c r="R2" s="295"/>
-      <c r="S2" s="295"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="301"/>
+      <c r="Q2" s="301"/>
+      <c r="R2" s="301"/>
+      <c r="S2" s="301"/>
     </row>
     <row r="3" spans="1:26" s="190" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="302" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="297"/>
-      <c r="K3" s="297"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
-      <c r="O3" s="297"/>
-      <c r="P3" s="297"/>
-      <c r="Q3" s="297"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="298"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="303"/>
+      <c r="Q3" s="303"/>
+      <c r="R3" s="303"/>
+      <c r="S3" s="304"/>
       <c r="U3" s="105"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -5079,58 +5079,58 @@
       <c r="Z3" s="28"/>
     </row>
     <row r="4" spans="1:26" s="192" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="299" t="s">
+      <c r="A4" s="305" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="301" t="s">
+      <c r="B4" s="307" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="294" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="303" t="s">
+      <c r="D4" s="294" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="303" t="s">
+      <c r="E4" s="294" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="303" t="s">
+      <c r="F4" s="294" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="303" t="s">
+      <c r="G4" s="294" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="303" t="s">
+      <c r="H4" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="I4" s="303" t="s">
+      <c r="I4" s="294" t="s">
         <v>123</v>
       </c>
-      <c r="J4" s="303" t="s">
+      <c r="J4" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="303" t="s">
+      <c r="K4" s="294" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="303" t="s">
+      <c r="L4" s="294" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="303" t="s">
+      <c r="M4" s="294" t="s">
         <v>106</v>
       </c>
-      <c r="N4" s="303" t="s">
+      <c r="N4" s="294" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="296" t="s">
         <v>245</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="298" t="s">
         <v>108</v>
       </c>
-      <c r="Q4" s="307" t="s">
+      <c r="Q4" s="311" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="305" t="s">
+      <c r="R4" s="309" t="s">
         <v>109</v>
       </c>
       <c r="S4" s="191" t="s">
@@ -5143,24 +5143,24 @@
       <c r="Y4" s="194"/>
     </row>
     <row r="5" spans="1:26" s="192" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="300"/>
-      <c r="B5" s="302"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="312"/>
-      <c r="Q5" s="308"/>
-      <c r="R5" s="306"/>
+      <c r="A5" s="306"/>
+      <c r="B5" s="308"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="295"/>
+      <c r="E5" s="295"/>
+      <c r="F5" s="295"/>
+      <c r="G5" s="295"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="295"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
+      <c r="M5" s="295"/>
+      <c r="N5" s="295"/>
+      <c r="O5" s="297"/>
+      <c r="P5" s="299"/>
+      <c r="Q5" s="312"/>
+      <c r="R5" s="310"/>
       <c r="S5" s="196" t="s">
         <v>110</v>
       </c>
@@ -8437,11 +8437,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8458,6 +8453,11 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
